--- a/poba kredi/hspzt/aaHesap_Hareketleri_23022020-23022021.xlsx
+++ b/poba kredi/hspzt/aaHesap_Hareketleri_23022020-23022021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hesap hareketleri" sheetId="1" state="visible" r:id="rId2"/>
@@ -5275,25 +5275,7 @@
     <t xml:space="preserve">HESAP NO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">2637 – </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">35209664 – 5004</t>
-    </r>
+    <t xml:space="preserve">2637 – 35209664 – 5004</t>
   </si>
   <si>
     <t xml:space="preserve">TOPLAMLAR</t>
@@ -5380,7 +5362,7 @@
     <numFmt numFmtId="168" formatCode="0.00"/>
     <numFmt numFmtId="169" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -5440,12 +5422,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -5548,7 +5524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5661,6 +5637,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5693,10 +5673,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5705,48 +5681,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -5836,9 +5808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1287000</xdr:colOff>
+      <xdr:colOff>1286640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5852,7 +5824,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2704680" cy="570960"/>
+          <a:ext cx="2704320" cy="570600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5874,16 +5846,16 @@
   </sheetPr>
   <dimension ref="A5:E877"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A664" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.7"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20480,7 +20452,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="11.38"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="28.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="11.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="12.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="11.18"/>
@@ -35993,17 +35965,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.640625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.65234375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.93"/>
   </cols>
@@ -36033,110 +36005,95 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="n">
+        <v>44253</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="28" t="n">
+      <c r="D6" s="29" t="n">
         <v>3450</v>
       </c>
-      <c r="E3" s="4" t="n">
+      <c r="E6" s="4" t="n">
         <v>4480.01</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="29" t="n">
+      <c r="D7" s="30" t="n">
         <v>-109.92</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E7" s="8" t="n">
         <v>8062.09</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="29" t="n">
+      <c r="D8" s="30" t="n">
         <v>-1543.54</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E8" s="8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="29" t="n">
-        <v>-1805.98</v>
-      </c>
-      <c r="E6" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="26"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="28" t="n">
-        <v>3460</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>16805.98</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="29" t="n">
-        <v>-3472.47</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="30" t="n">
+        <v>-1805.98</v>
       </c>
       <c r="E9" s="8" t="n">
-        <v>13345.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36144,164 +36101,164 @@
       <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>104</v>
+      <c r="A11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="D11" s="29" t="n">
-        <v>-2466.13</v>
-      </c>
-      <c r="E11" s="8" t="n">
-        <v>1980.87</v>
+        <v>3460</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>16805.98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="30" t="n">
+        <v>-3472.47</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>13345.98</v>
+      </c>
+    </row>
+    <row r="13" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="26"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="30" t="n">
+        <v>-2466.13</v>
+      </c>
+      <c r="E14" s="8" t="n">
+        <v>1980.87</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="29" t="n">
+      <c r="D15" s="30" t="n">
         <v>-248.24</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E15" s="8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="29" t="n">
-        <v>-754.83</v>
-      </c>
-      <c r="E13" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D14" s="28" t="n">
-        <v>3450</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <v>2981.35</v>
-      </c>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="26"/>
-      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="30" t="n">
+        <v>-754.83</v>
+      </c>
+      <c r="E16" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="29" t="n">
+        <v>3450</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>2981.35</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="26"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D16" s="29" t="n">
+      <c r="D19" s="30" t="n">
         <v>-988.12</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E19" s="8" t="n">
         <v>12990.4</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="D17" s="29" t="n">
-        <v>-2468.2</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D18" s="28" t="n">
-        <v>3440</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <v>3468.2</v>
-      </c>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="26"/>
-      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>263</v>
+        <v>196</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>265</v>
+        <v>197</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D20" s="29" t="n">
-        <v>-3418.91</v>
+        <v>182</v>
+      </c>
+      <c r="D20" s="30" t="n">
+        <v>-2468.2</v>
       </c>
       <c r="E20" s="8" t="n">
-        <v>6727.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>306</v>
+        <v>201</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" s="28" t="n">
-        <v>3450</v>
+        <v>203</v>
+      </c>
+      <c r="D21" s="29" t="n">
+        <v>3440</v>
       </c>
       <c r="E21" s="4" t="n">
-        <v>2742.13</v>
+        <v>3468.2</v>
       </c>
     </row>
     <row r="22" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36310,36 +36267,36 @@
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>394</v>
+        <v>263</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>395</v>
+        <v>265</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="29" t="n">
-        <v>-3455.52</v>
+        <v>266</v>
+      </c>
+      <c r="D23" s="30" t="n">
+        <v>-3418.91</v>
       </c>
       <c r="E23" s="8" t="n">
-        <v>1980.1</v>
+        <v>6727.86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="28" t="n">
+        <v>308</v>
+      </c>
+      <c r="D24" s="29" t="n">
         <v>3450</v>
       </c>
       <c r="E24" s="4" t="n">
-        <v>6435.62</v>
+        <v>2742.13</v>
       </c>
     </row>
     <row r="25" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36348,216 +36305,203 @@
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="D26" s="29" t="n">
-        <v>-27.65</v>
+        <v>396</v>
+      </c>
+      <c r="D26" s="30" t="n">
+        <v>-3455.52</v>
       </c>
       <c r="E26" s="8" t="n">
-        <v>23989.27</v>
+        <v>1980.1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>418</v>
+      <c r="A27" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="D27" s="29" t="n">
-        <v>-400</v>
-      </c>
-      <c r="E27" s="8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D28" s="28" t="n">
-        <v>3400</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>400</v>
-      </c>
+        <v>3450</v>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>6435.62</v>
+      </c>
+    </row>
+    <row r="28" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="26"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="D29" s="29" t="n">
-        <v>-3029.79</v>
+      <c r="D29" s="30" t="n">
+        <v>-27.65</v>
       </c>
       <c r="E29" s="8" t="n">
+        <v>23989.27</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" s="30" t="n">
+        <v>-400</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>461</v>
+      <c r="A31" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="D31" s="29" t="n">
-        <v>-973.35</v>
-      </c>
-      <c r="E31" s="8" t="n">
-        <v>17670.44</v>
+        <v>3400</v>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>324</v>
+        <v>438</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="D32" s="29" t="n">
-        <v>-2484.86</v>
+        <v>418</v>
+      </c>
+      <c r="D32" s="30" t="n">
+        <v>-3029.79</v>
       </c>
       <c r="E32" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34" s="30" t="n">
+        <v>-973.35</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>17670.44</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35" s="30" t="n">
+        <v>-2484.86</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D33" s="28" t="n">
+      <c r="D36" s="29" t="n">
         <v>3500</v>
       </c>
-      <c r="E33" s="4" t="n">
+      <c r="E36" s="4" t="n">
         <v>8834.86</v>
       </c>
     </row>
-    <row r="34" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="26"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>522</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>523</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="D35" s="30" t="n">
-        <v>-188</v>
-      </c>
-      <c r="E35" s="13" t="n">
-        <v>-275.63</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>525</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>526</v>
-      </c>
-      <c r="D36" s="30" t="n">
-        <v>-271.43</v>
-      </c>
-      <c r="E36" s="13" t="n">
-        <v>-87.63</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>530</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>532</v>
-      </c>
-      <c r="D37" s="30" t="n">
-        <v>-1163.23</v>
-      </c>
-      <c r="E37" s="13" t="n">
-        <v>-5000</v>
-      </c>
+    <row r="37" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="26"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>533</v>
-      </c>
-      <c r="D38" s="30" t="n">
-        <v>-0.06</v>
+        <v>524</v>
+      </c>
+      <c r="D38" s="31" t="n">
+        <v>-188</v>
       </c>
       <c r="E38" s="13" t="n">
-        <v>-3836.77</v>
+        <v>-275.63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>531</v>
+        <v>498</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="D39" s="30" t="n">
-        <v>-0.17</v>
+        <v>526</v>
+      </c>
+      <c r="D39" s="31" t="n">
+        <v>-271.43</v>
       </c>
       <c r="E39" s="13" t="n">
-        <v>-3836.71</v>
+        <v>-87.63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36568,146 +36512,159 @@
         <v>531</v>
       </c>
       <c r="C40" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="D40" s="31" t="n">
+        <v>-1163.23</v>
+      </c>
+      <c r="E40" s="13" t="n">
+        <v>-5000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="31" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E41" s="13" t="n">
+        <v>-3836.77</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="D42" s="31" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E42" s="13" t="n">
+        <v>-3836.71</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="D40" s="30" t="n">
+      <c r="D43" s="31" t="n">
         <v>-1.12</v>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E43" s="13" t="n">
         <v>-3836.54</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="9"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="D42" s="29" t="n">
-        <v>-3453.17</v>
-      </c>
-      <c r="E42" s="8" t="n">
-        <v>-3793.43</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D43" s="28" t="n">
-        <v>3455</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>-340.26</v>
-      </c>
-    </row>
-    <row r="44" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D44" s="26"/>
-      <c r="E44" s="6"/>
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D45" s="30" t="n">
+        <v>-3453.17</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>-3793.43</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D46" s="29" t="n">
+        <v>3455</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>-340.26</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="26"/>
+      <c r="E47" s="6"/>
+    </row>
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D45" s="29" t="n">
+      <c r="D48" s="30" t="n">
         <v>-2198.41</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E48" s="8" t="n">
         <v>-4801.36</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="D46" s="29" t="n">
-        <v>-3646.01</v>
-      </c>
-      <c r="E46" s="8" t="n">
-        <v>-2602.95</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D47" s="28" t="n">
-        <v>5860</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>1043.06</v>
-      </c>
-    </row>
-    <row r="48" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="26"/>
-      <c r="E48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>827</v>
+        <v>761</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>828</v>
+        <v>764</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>829</v>
-      </c>
-      <c r="D49" s="29" t="n">
-        <v>-3642.98</v>
+        <v>765</v>
+      </c>
+      <c r="D49" s="30" t="n">
+        <v>-3646.01</v>
       </c>
       <c r="E49" s="8" t="n">
-        <v>-2352.18</v>
+        <v>-2602.95</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>827</v>
+        <v>761</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>828</v>
+        <v>766</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D50" s="28" t="n">
-        <v>3645</v>
+        <v>767</v>
+      </c>
+      <c r="D50" s="29" t="n">
+        <v>5860</v>
       </c>
       <c r="E50" s="4" t="n">
-        <v>1290.8</v>
+        <v>1043.06</v>
       </c>
     </row>
     <row r="51" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36715,88 +36672,75 @@
       <c r="E51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="14" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D52" s="31" t="n">
-        <v>-202.76</v>
-      </c>
-      <c r="E52" s="15" t="n">
-        <v>-3584.36</v>
+      <c r="A52" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="D52" s="30" t="n">
+        <v>-3642.98</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>-2352.18</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="14" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D53" s="31" t="n">
-        <v>-247.9</v>
-      </c>
-      <c r="E53" s="15" t="n">
-        <v>-3381.6</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="14" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>532</v>
-      </c>
-      <c r="D54" s="31" t="n">
-        <v>-1141.56</v>
-      </c>
-      <c r="E54" s="15" t="n">
-        <v>-3133.7</v>
-      </c>
+      <c r="A53" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D53" s="29" t="n">
+        <v>3645</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>1290.8</v>
+      </c>
+    </row>
+    <row r="54" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="26"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>1091</v>
+        <v>171</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>533</v>
-      </c>
-      <c r="D55" s="31" t="n">
-        <v>-0.06</v>
+        <v>1086</v>
+      </c>
+      <c r="D55" s="32" t="n">
+        <v>-202.76</v>
       </c>
       <c r="E55" s="15" t="n">
-        <v>-1992.14</v>
+        <v>-3584.36</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="D56" s="31" t="n">
-        <v>-0.19</v>
+        <v>1089</v>
+      </c>
+      <c r="D56" s="32" t="n">
+        <v>-247.9</v>
       </c>
       <c r="E56" s="15" t="n">
-        <v>-1992.08</v>
+        <v>-3381.6</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36807,51 +36751,64 @@
         <v>1091</v>
       </c>
       <c r="C57" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="D57" s="32" t="n">
+        <v>-1141.56</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>-3133.7</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="D58" s="32" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>-1992.14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="D59" s="32" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E59" s="15" t="n">
+        <v>-1992.08</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="D57" s="31" t="n">
+      <c r="D60" s="32" t="n">
         <v>-1.26</v>
       </c>
-      <c r="E57" s="15" t="n">
+      <c r="E60" s="15" t="n">
         <v>-1991.89</v>
-      </c>
-    </row>
-    <row r="58" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="26"/>
-      <c r="E58" s="6"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D59" s="29" t="n">
-        <v>-3647.57</v>
-      </c>
-      <c r="E59" s="8" t="n">
-        <v>-265.48</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D60" s="28" t="n">
-        <v>3650</v>
-      </c>
-      <c r="E60" s="4" t="n">
-        <v>3382.09</v>
       </c>
     </row>
     <row r="61" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36860,91 +36817,91 @@
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>1169</v>
+        <v>1130</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1170</v>
+        <v>1133</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D62" s="29" t="n">
-        <v>-1370.97</v>
+        <v>1134</v>
+      </c>
+      <c r="D62" s="30" t="n">
+        <v>-3647.57</v>
       </c>
       <c r="E62" s="8" t="n">
-        <v>2279.03</v>
+        <v>-265.48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D63" s="29" t="n">
+        <v>3650</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>3382.09</v>
+      </c>
+    </row>
+    <row r="64" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="26"/>
+      <c r="E64" s="6"/>
+    </row>
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="7" t="s">
         <v>1169</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B65" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D65" s="30" t="n">
+        <v>-1370.97</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>2279.03</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D63" s="28" t="n">
+      <c r="D66" s="29" t="n">
         <v>3650</v>
       </c>
-      <c r="E63" s="4" t="n">
+      <c r="E66" s="4" t="n">
         <v>3650</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="7" t="s">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
         <v>1173</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B67" s="7" t="s">
         <v>1174</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C67" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="D64" s="29" t="n">
+      <c r="D67" s="30" t="n">
         <v>-2273.05</v>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="E67" s="8" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="65" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D65" s="26"/>
-      <c r="E65" s="6"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D66" s="29" t="n">
-        <v>-3646.01</v>
-      </c>
-      <c r="E66" s="8" t="n">
-        <v>-2330.32</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D67" s="28" t="n">
-        <v>3646</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <v>1315.69</v>
       </c>
     </row>
     <row r="68" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36953,36 +36910,36 @@
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>1328</v>
+        <v>1284</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1329</v>
+        <v>1285</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D69" s="29" t="n">
+        <v>1286</v>
+      </c>
+      <c r="D69" s="30" t="n">
         <v>-3646.01</v>
       </c>
       <c r="E69" s="8" t="n">
-        <v>-4208.66</v>
+        <v>-2330.32</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>1328</v>
+        <v>1284</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1329</v>
+        <v>1285</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D70" s="28" t="n">
-        <v>3647</v>
+      <c r="D70" s="29" t="n">
+        <v>3646</v>
       </c>
       <c r="E70" s="4" t="n">
-        <v>-562.65</v>
+        <v>1315.69</v>
       </c>
     </row>
     <row r="71" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36991,52 +36948,90 @@
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>1388</v>
+        <v>1328</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1389</v>
+        <v>1329</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>1390</v>
-      </c>
-      <c r="D72" s="29" t="n">
+        <v>1330</v>
+      </c>
+      <c r="D72" s="30" t="n">
         <v>-3646.01</v>
       </c>
       <c r="E72" s="8" t="n">
-        <v>1622.49</v>
+        <v>-4208.66</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>1388</v>
+        <v>1328</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1389</v>
+        <v>1329</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="D73" s="28" t="n">
+      <c r="D73" s="29" t="n">
+        <v>3647</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>-562.65</v>
+      </c>
+    </row>
+    <row r="74" s="9" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="26"/>
+      <c r="E74" s="6"/>
+    </row>
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="7" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D75" s="30" t="n">
+        <v>-3646.01</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>1622.49</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D76" s="29" t="n">
         <v>3645</v>
       </c>
-      <c r="E73" s="4" t="n">
+      <c r="E76" s="4" t="n">
         <v>5268.5</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="9" t="s">
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C77" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="D74" s="26" t="n">
+      <c r="D77" s="26" t="n">
         <v>-0.02</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E77" s="6" t="n">
         <v>-369.46</v>
       </c>
     </row>
@@ -37058,41 +37053,41 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="3.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="33" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="34" width="10.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="32" width="27.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="11.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="32" width="10.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="32" width="8.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="33" width="3.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="34" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="35" width="10.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="33" width="27.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="11.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="33" width="10.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="33" width="8.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="36"/>
+      <c r="A1" s="0"/>
       <c r="B1" s="37"/>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="35" t="s">
         <v>1749</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>1750</v>
       </c>
-      <c r="G1" s="35"/>
+      <c r="G1" s="36"/>
     </row>
     <row r="2" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="36"/>
+      <c r="A2" s="0"/>
       <c r="B2" s="37"/>
       <c r="D2" s="38"/>
-      <c r="G2" s="35"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="36"/>
+      <c r="B3" s="0"/>
       <c r="D3" s="39" t="s">
         <v>1751</v>
       </c>
@@ -37111,14 +37106,14 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="41"/>
-      <c r="G4" s="35"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="41"/>
       <c r="D5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="41" t="s">
@@ -37406,50 +37401,50 @@
       <c r="D38" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="36"/>
+      <c r="E38" s="0"/>
       <c r="F38" s="45" t="n">
         <v>3450</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="35" t="n">
+      <c r="E39" s="36" t="n">
         <v>-109.92</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="35" t="n">
+      <c r="E40" s="36" t="n">
         <v>-1543.54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="35" t="n">
+      <c r="E41" s="36" t="n">
         <v>-1805.98</v>
       </c>
     </row>
@@ -37466,22 +37461,22 @@
       <c r="D42" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="0"/>
       <c r="F42" s="45" t="n">
         <v>3460</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="33" t="s">
+      <c r="B43" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="35" t="n">
+      <c r="E43" s="36" t="n">
         <v>-3472.47</v>
       </c>
     </row>
@@ -37505,44 +37500,44 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="35" t="n">
+      <c r="E47" s="36" t="n">
         <v>-2466.13</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="35" t="n">
+      <c r="E48" s="36" t="n">
         <v>-248.24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="33" t="s">
+      <c r="B49" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="35" t="n">
+      <c r="E49" s="36" t="n">
         <v>-754.83</v>
       </c>
     </row>
@@ -37559,36 +37554,36 @@
       <c r="D50" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="E50" s="36"/>
+      <c r="E50" s="0"/>
       <c r="F50" s="45" t="n">
         <v>3450</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E51" s="35" t="n">
+      <c r="E51" s="36" t="n">
         <v>-988.12</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="33" t="s">
+      <c r="B52" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="35" t="n">
+      <c r="E52" s="36" t="n">
         <v>-2468.2</v>
       </c>
     </row>
@@ -37605,16 +37600,16 @@
       <c r="D53" s="44" t="s">
         <v>203</v>
       </c>
-      <c r="E53" s="36"/>
+      <c r="E53" s="0"/>
       <c r="F53" s="45" t="n">
         <v>3440</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="33" t="s">
         <v>1756</v>
       </c>
-      <c r="E54" s="35" t="n">
+      <c r="E54" s="36" t="n">
         <v>-3455</v>
       </c>
     </row>
@@ -37629,22 +37624,22 @@
       <c r="D55" s="44" t="s">
         <v>1757</v>
       </c>
-      <c r="E55" s="49"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="45" t="n">
         <v>3455</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="33" t="s">
+      <c r="B56" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" s="33" t="s">
         <v>266</v>
       </c>
-      <c r="E56" s="35" t="n">
+      <c r="E56" s="36" t="n">
         <v>-3418.91</v>
       </c>
     </row>
@@ -37661,16 +37656,16 @@
       <c r="D57" s="44" t="s">
         <v>308</v>
       </c>
-      <c r="E57" s="36"/>
+      <c r="E57" s="0"/>
       <c r="F57" s="45" t="n">
         <v>3450</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="33" t="s">
         <v>1758</v>
       </c>
-      <c r="E58" s="35" t="n">
+      <c r="E58" s="36" t="n">
         <v>-3455</v>
       </c>
     </row>
@@ -37685,22 +37680,22 @@
       <c r="D59" s="44" t="s">
         <v>1757</v>
       </c>
-      <c r="E59" s="36"/>
+      <c r="E59" s="0"/>
       <c r="F59" s="45" t="n">
         <v>3502.63</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="E60" s="35" t="n">
+      <c r="E60" s="36" t="n">
         <v>-3455.52</v>
       </c>
     </row>
@@ -37717,36 +37712,36 @@
       <c r="D61" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="E61" s="36"/>
+      <c r="E61" s="0"/>
       <c r="F61" s="45" t="n">
         <v>3450</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="33" t="s">
+      <c r="B62" s="34" t="s">
         <v>412</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="35" t="s">
         <v>417</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E62" s="35" t="n">
+      <c r="E62" s="36" t="n">
         <v>-27.65</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="33" t="s">
+      <c r="B63" s="34" t="s">
         <v>430</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="35" t="s">
         <v>431</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E63" s="35" t="n">
+      <c r="E63" s="36" t="n">
         <v>-400</v>
       </c>
     </row>
@@ -37763,50 +37758,50 @@
       <c r="D64" s="44" t="s">
         <v>434</v>
       </c>
-      <c r="E64" s="36"/>
+      <c r="E64" s="0"/>
       <c r="F64" s="45" t="n">
         <v>3400</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="33" t="s">
+      <c r="B65" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="33" t="s">
         <v>418</v>
       </c>
-      <c r="E65" s="35" t="n">
+      <c r="E65" s="36" t="n">
         <v>-3029.79</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="33" t="s">
+      <c r="B66" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="E66" s="35" t="n">
+      <c r="E66" s="36" t="n">
         <v>-973.35</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="33" t="s">
         <v>461</v>
       </c>
-      <c r="E67" s="35" t="n">
+      <c r="E67" s="36" t="n">
         <v>-2484.86</v>
       </c>
     </row>
@@ -37823,156 +37818,156 @@
       <c r="D68" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="E68" s="36"/>
+      <c r="E68" s="0"/>
       <c r="F68" s="45" t="n">
         <v>3500</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="33" t="s">
+      <c r="B69" s="34" t="s">
         <v>522</v>
       </c>
-      <c r="C69" s="34" t="s">
+      <c r="C69" s="35" t="s">
         <v>523</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="33" t="s">
         <v>524</v>
       </c>
-      <c r="E69" s="36"/>
-      <c r="G69" s="35" t="n">
+      <c r="E69" s="0"/>
+      <c r="G69" s="36" t="n">
         <v>-188</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="33" t="s">
+      <c r="B70" s="34" t="s">
         <v>525</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="35" t="s">
         <v>498</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="33" t="s">
         <v>526</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="G70" s="35" t="n">
+      <c r="E70" s="0"/>
+      <c r="G70" s="36" t="n">
         <v>-271.43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="33" t="s">
+      <c r="B71" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C71" s="34" t="s">
+      <c r="C71" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="E71" s="36"/>
-      <c r="G71" s="35" t="n">
+      <c r="E71" s="0"/>
+      <c r="G71" s="36" t="n">
         <v>-1163.23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C72" s="34" t="s">
+      <c r="C72" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="E72" s="36"/>
-      <c r="G72" s="35" t="n">
+      <c r="E72" s="0"/>
+      <c r="G72" s="36" t="n">
         <v>-0.06</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C73" s="34" t="s">
+      <c r="C73" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D73" s="32" t="s">
+      <c r="D73" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="E73" s="36"/>
-      <c r="G73" s="35" t="n">
+      <c r="E73" s="0"/>
+      <c r="G73" s="36" t="n">
         <v>-0.17</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="35" t="s">
         <v>531</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="E74" s="36"/>
-      <c r="G74" s="35" t="n">
+      <c r="E74" s="0"/>
+      <c r="G74" s="36" t="n">
         <v>-1.12</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="33" t="s">
         <v>1759</v>
       </c>
-      <c r="E75" s="35" t="n">
+      <c r="E75" s="36" t="n">
         <v>-3455</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="32" t="n">
+      <c r="A76" s="33" t="n">
         <v>24</v>
       </c>
-      <c r="B76" s="33" t="n">
+      <c r="B76" s="34" t="n">
         <v>43916</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="33" t="s">
         <v>1757</v>
       </c>
-      <c r="F76" s="35" t="n">
+      <c r="F76" s="36" t="n">
         <v>3495</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="33" t="s">
         <v>1760</v>
       </c>
-      <c r="E77" s="35" t="n">
+      <c r="E77" s="36" t="n">
         <v>-3453.17</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="32" t="n">
+      <c r="A78" s="33" t="n">
         <v>23</v>
       </c>
-      <c r="B78" s="33" t="n">
+      <c r="B78" s="34" t="n">
         <v>43886</v>
       </c>
-      <c r="D78" s="32" t="s">
+      <c r="D78" s="33" t="s">
         <v>1757</v>
       </c>
-      <c r="F78" s="35" t="n">
+      <c r="F78" s="36" t="n">
         <v>3455</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="35" t="s">
         <v>620</v>
       </c>
-      <c r="D79" s="32" t="s">
+      <c r="D79" s="33" t="s">
         <v>621</v>
       </c>
-      <c r="E79" s="35" t="n">
+      <c r="E79" s="36" t="n">
         <v>-3453.17</v>
       </c>
     </row>
@@ -38007,10 +38002,10 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="41"/>
-      <c r="D83" s="32" t="s">
+      <c r="D83" s="33" t="s">
         <v>1761</v>
       </c>
-      <c r="E83" s="35" t="n">
+      <c r="E83" s="36" t="n">
         <v>-3453.17</v>
       </c>
     </row>
@@ -38032,10 +38027,10 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="41"/>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="33" t="s">
         <v>1762</v>
       </c>
-      <c r="E85" s="35" t="n">
+      <c r="E85" s="36" t="n">
         <v>-3457</v>
       </c>
     </row>
@@ -38056,30 +38051,30 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="C87" s="34" t="s">
+      <c r="C87" s="35" t="s">
         <v>762</v>
       </c>
-      <c r="D87" s="32" t="s">
+      <c r="D87" s="33" t="s">
         <v>763</v>
       </c>
-      <c r="E87" s="35" t="n">
+      <c r="E87" s="36" t="n">
         <v>-2198.41</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="33" t="s">
+      <c r="B88" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="C88" s="34" t="s">
+      <c r="C88" s="35" t="s">
         <v>764</v>
       </c>
-      <c r="D88" s="32" t="s">
+      <c r="D88" s="33" t="s">
         <v>765</v>
       </c>
-      <c r="E88" s="35" t="n">
+      <c r="E88" s="36" t="n">
         <v>-3646.01</v>
       </c>
     </row>
@@ -38102,16 +38097,16 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="34" t="s">
         <v>827</v>
       </c>
-      <c r="C90" s="34" t="s">
+      <c r="C90" s="35" t="s">
         <v>828</v>
       </c>
-      <c r="D90" s="32" t="s">
+      <c r="D90" s="33" t="s">
         <v>829</v>
       </c>
-      <c r="E90" s="35" t="n">
+      <c r="E90" s="36" t="n">
         <v>-3642.98</v>
       </c>
     </row>
@@ -38136,10 +38131,10 @@
     <row r="92" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="41"/>
       <c r="C92" s="43"/>
-      <c r="D92" s="32" t="s">
+      <c r="D92" s="33" t="s">
         <v>1763</v>
       </c>
-      <c r="E92" s="35" t="n">
+      <c r="E92" s="36" t="n">
         <v>-3645.52</v>
       </c>
       <c r="F92" s="45"/>
@@ -38163,10 +38158,10 @@
     <row r="94" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="41"/>
       <c r="C94" s="43"/>
-      <c r="D94" s="32" t="s">
+      <c r="D94" s="33" t="s">
         <v>1764</v>
       </c>
-      <c r="E94" s="35" t="n">
+      <c r="E94" s="36" t="n">
         <v>-3649.31</v>
       </c>
       <c r="F94" s="45"/>
@@ -38190,10 +38185,10 @@
     <row r="96" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="41"/>
       <c r="C96" s="43"/>
-      <c r="D96" s="32" t="s">
+      <c r="D96" s="33" t="s">
         <v>1765</v>
       </c>
-      <c r="E96" s="35" t="n">
+      <c r="E96" s="36" t="n">
         <v>-3644.64</v>
       </c>
       <c r="F96" s="45"/>
@@ -38217,10 +38212,10 @@
     <row r="98" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="41"/>
       <c r="C98" s="43"/>
-      <c r="D98" s="32" t="s">
+      <c r="D98" s="33" t="s">
         <v>1766</v>
       </c>
-      <c r="E98" s="35" t="n">
+      <c r="E98" s="36" t="n">
         <v>-3644.77</v>
       </c>
       <c r="F98" s="45"/>
@@ -38244,10 +38239,10 @@
     <row r="100" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="41"/>
       <c r="C100" s="43"/>
-      <c r="D100" s="32" t="s">
+      <c r="D100" s="33" t="s">
         <v>1767</v>
       </c>
-      <c r="E100" s="35" t="n">
+      <c r="E100" s="36" t="n">
         <v>-3645.6</v>
       </c>
       <c r="F100" s="45"/>
@@ -38269,100 +38264,100 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="33" t="s">
+      <c r="B102" s="34" t="s">
         <v>1085</v>
       </c>
-      <c r="C102" s="34" t="s">
+      <c r="C102" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="D102" s="32" t="s">
+      <c r="D102" s="33" t="s">
         <v>1086</v>
       </c>
-      <c r="E102" s="36"/>
-      <c r="G102" s="35" t="n">
+      <c r="E102" s="0"/>
+      <c r="G102" s="36" t="n">
         <v>-202.76</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="33" t="s">
+      <c r="B103" s="34" t="s">
         <v>1087</v>
       </c>
-      <c r="C103" s="34" t="s">
+      <c r="C103" s="35" t="s">
         <v>1088</v>
       </c>
-      <c r="D103" s="32" t="s">
+      <c r="D103" s="33" t="s">
         <v>1089</v>
       </c>
-      <c r="E103" s="36"/>
-      <c r="G103" s="35" t="n">
+      <c r="E103" s="0"/>
+      <c r="G103" s="36" t="n">
         <v>-247.9</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="33" t="s">
+      <c r="B104" s="34" t="s">
         <v>1090</v>
       </c>
-      <c r="C104" s="34" t="s">
+      <c r="C104" s="35" t="s">
         <v>1091</v>
       </c>
-      <c r="D104" s="32" t="s">
+      <c r="D104" s="33" t="s">
         <v>532</v>
       </c>
-      <c r="E104" s="36"/>
-      <c r="G104" s="35" t="n">
+      <c r="E104" s="0"/>
+      <c r="G104" s="36" t="n">
         <v>-1141.56</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="34" t="s">
         <v>1090</v>
       </c>
-      <c r="C105" s="34" t="s">
+      <c r="C105" s="35" t="s">
         <v>1091</v>
       </c>
-      <c r="D105" s="32" t="s">
+      <c r="D105" s="33" t="s">
         <v>533</v>
       </c>
-      <c r="E105" s="36"/>
-      <c r="G105" s="35" t="n">
+      <c r="E105" s="0"/>
+      <c r="G105" s="36" t="n">
         <v>-0.06</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="34" t="s">
         <v>1090</v>
       </c>
-      <c r="C106" s="34" t="s">
+      <c r="C106" s="35" t="s">
         <v>1091</v>
       </c>
-      <c r="D106" s="32" t="s">
+      <c r="D106" s="33" t="s">
         <v>534</v>
       </c>
-      <c r="E106" s="36"/>
-      <c r="G106" s="35" t="n">
+      <c r="E106" s="0"/>
+      <c r="G106" s="36" t="n">
         <v>-0.19</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="33" t="s">
+      <c r="B107" s="34" t="s">
         <v>1090</v>
       </c>
-      <c r="C107" s="34" t="s">
+      <c r="C107" s="35" t="s">
         <v>1091</v>
       </c>
-      <c r="D107" s="32" t="s">
+      <c r="D107" s="33" t="s">
         <v>535</v>
       </c>
-      <c r="E107" s="36"/>
-      <c r="G107" s="35" t="n">
+      <c r="E107" s="0"/>
+      <c r="G107" s="36" t="n">
         <v>-1.26</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="32" t="s">
+      <c r="D108" s="33" t="s">
         <v>1768</v>
       </c>
-      <c r="E108" s="35" t="n">
+      <c r="E108" s="36" t="n">
         <v>-3644.8</v>
       </c>
     </row>
@@ -38383,16 +38378,16 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="34" t="s">
         <v>1130</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="35" t="s">
         <v>1133</v>
       </c>
-      <c r="D110" s="32" t="s">
+      <c r="D110" s="33" t="s">
         <v>1134</v>
       </c>
-      <c r="E110" s="35" t="n">
+      <c r="E110" s="36" t="n">
         <v>-3647.57</v>
       </c>
     </row>
@@ -38409,22 +38404,22 @@
       <c r="D111" s="44" t="s">
         <v>622</v>
       </c>
-      <c r="E111" s="50"/>
+      <c r="E111" s="49"/>
       <c r="F111" s="45" t="n">
         <v>3650</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="34" t="s">
         <v>1169</v>
       </c>
-      <c r="C112" s="34" t="s">
+      <c r="C112" s="35" t="s">
         <v>1170</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D112" s="33" t="s">
         <v>1171</v>
       </c>
-      <c r="E112" s="35" t="n">
+      <c r="E112" s="36" t="n">
         <v>-1370.97</v>
       </c>
     </row>
@@ -38447,16 +38442,16 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="34" t="s">
         <v>1173</v>
       </c>
-      <c r="C114" s="34" t="s">
+      <c r="C114" s="35" t="s">
         <v>1174</v>
       </c>
-      <c r="D114" s="32" t="s">
+      <c r="D114" s="33" t="s">
         <v>1171</v>
       </c>
-      <c r="E114" s="35" t="n">
+      <c r="E114" s="36" t="n">
         <v>-2273.05</v>
       </c>
     </row>
@@ -38467,10 +38462,10 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="41"/>
-      <c r="D117" s="32" t="s">
+      <c r="D117" s="33" t="s">
         <v>1769</v>
       </c>
-      <c r="E117" s="35" t="n">
+      <c r="E117" s="36" t="n">
         <v>-3644.45</v>
       </c>
     </row>
@@ -38491,10 +38486,10 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="32" t="s">
+      <c r="D119" s="33" t="s">
         <v>1770</v>
       </c>
-      <c r="E119" s="35" t="n">
+      <c r="E119" s="36" t="n">
         <v>-3647.02</v>
       </c>
     </row>
@@ -38515,16 +38510,16 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="33" t="s">
+      <c r="B121" s="34" t="s">
         <v>1284</v>
       </c>
-      <c r="C121" s="34" t="s">
+      <c r="C121" s="35" t="s">
         <v>1285</v>
       </c>
-      <c r="D121" s="32" t="s">
+      <c r="D121" s="33" t="s">
         <v>1286</v>
       </c>
-      <c r="E121" s="35" t="n">
+      <c r="E121" s="36" t="n">
         <v>-3646.01</v>
       </c>
     </row>
@@ -38547,16 +38542,16 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="34" t="s">
         <v>1328</v>
       </c>
-      <c r="C123" s="34" t="s">
+      <c r="C123" s="35" t="s">
         <v>1329</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="33" t="s">
         <v>1330</v>
       </c>
-      <c r="E123" s="35" t="n">
+      <c r="E123" s="36" t="n">
         <v>-3646.01</v>
       </c>
     </row>
@@ -38579,16 +38574,16 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="33" t="s">
+      <c r="B125" s="34" t="s">
         <v>1388</v>
       </c>
-      <c r="C125" s="34" t="s">
+      <c r="C125" s="35" t="s">
         <v>1389</v>
       </c>
-      <c r="D125" s="32" t="s">
+      <c r="D125" s="33" t="s">
         <v>1390</v>
       </c>
-      <c r="E125" s="35" t="n">
+      <c r="E125" s="36" t="n">
         <v>-3646.01</v>
       </c>
     </row>
@@ -38611,24 +38606,24 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="33" t="s">
+      <c r="B127" s="34" t="s">
         <v>1434</v>
       </c>
-      <c r="C127" s="34" t="s">
+      <c r="C127" s="35" t="s">
         <v>1437</v>
       </c>
-      <c r="D127" s="32" t="s">
+      <c r="D127" s="33" t="s">
         <v>1438</v>
       </c>
-      <c r="E127" s="35" t="n">
+      <c r="E127" s="36" t="n">
         <v>-0.02</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="32" t="s">
+      <c r="D128" s="33" t="s">
         <v>1771</v>
       </c>
-      <c r="E128" s="35" t="n">
+      <c r="E128" s="36" t="n">
         <v>-3645</v>
       </c>
     </row>
@@ -38649,10 +38644,10 @@
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="32" t="s">
+      <c r="D130" s="33" t="s">
         <v>1772</v>
       </c>
-      <c r="E130" s="35" t="n">
+      <c r="E130" s="36" t="n">
         <v>-3647</v>
       </c>
     </row>
@@ -38673,10 +38668,10 @@
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D132" s="32" t="s">
+      <c r="D132" s="33" t="s">
         <v>1773</v>
       </c>
-      <c r="E132" s="35" t="n">
+      <c r="E132" s="36" t="n">
         <v>-3645.65</v>
       </c>
     </row>
@@ -38697,10 +38692,10 @@
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="32" t="s">
+      <c r="D134" s="33" t="s">
         <v>1774</v>
       </c>
-      <c r="E134" s="35" t="n">
+      <c r="E134" s="36" t="n">
         <v>-3283.2</v>
       </c>
     </row>
@@ -38721,7 +38716,7 @@
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E251" s="36"/>
+      <c r="E251" s="0"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
